--- a/openn/tests/data/sheets/repeating_and_nonrepeating.xlsx
+++ b/openn/tests/data/sheets/repeating_and_nonrepeating.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
     <sheet name="VALUE LISTS" sheetId="7" r:id="rId2"/>
+    <sheet name="Pages" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -695,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -982,4 +983,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>